--- a/Model Summary/NTSK-wRLS_parameters.xlsx
+++ b/Model Summary/NTSK-wRLS_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Theta</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_vector</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Theta</t>
+          <t>std</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,17 +461,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>firing_degree</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
         </is>
       </c>
     </row>
@@ -481,50 +476,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.38179808]
- [0.23853312]
- [0.48200822]]</t>
+          <t>[[  3.24109052   1.1992281   -3.79175444  -3.84421294]
+ [  1.1992281   17.20369287 -19.13801107  -1.08904071]
+ [ -3.79175444 -19.13801107  26.7254046    1.25191195]
+ [ -3.84421294  -1.08904071   1.25191195   7.70186787]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[ 0.05764003 -0.06150809  0.00752354 -0.08720065]
- [-0.06150809  0.37636662 -0.3342106   0.10963898]
- [ 0.00752354 -0.3342106   0.44978137 -0.08388847]
- [-0.08720065  0.10963898 -0.08388847  0.1703796 ]]</t>
+          <t>[[-18.99930445]
+ [ 35.30910775]
+ [  5.75423389]
+ [ -0.03590153]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.6815767 ]
+ [0.27104027]
+ [0.77015157]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[-18.49992697]
- [ 33.13815123]
- [  7.56994205]
- [ -0.70453273]]</t>
+          <t>[[0.12798663]
+ [0.11880446]
+ [0.18339079]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002694717034754111</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[[0.19853592]
- [0.15791639]
- [0.15938774]]</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.003208503345900939</v>
+        <v>4.099697326973372</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0007142548823228727</v>
       </c>
     </row>
     <row r="3">
@@ -533,50 +520,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.60172045]
- [0.35396951]
- [0.64075436]]</t>
+          <t>[[  5.30131846   1.88407438  -6.2350334   -6.26679732]
+ [  1.88407438  29.46480322 -32.15652398  -2.33433606]
+ [ -6.2350334  -32.15652398  43.95737786   2.88724136]
+ [ -6.26679732  -2.33433606   2.88724136  12.56177749]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[ 0.22473893  0.0834793  -0.40638222 -0.17588441]
- [ 0.0834793   0.2252275  -0.31319651 -0.11858924]
- [-0.40638222 -0.31319651  1.35217268  0.07290526]
- [-0.17588441 -0.11858924  0.07290526  0.34383105]]</t>
+          <t>[[-18.97230649]
+ [ 34.95264104]
+ [  6.08139569]
+ [ -0.04484085]]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.66435056]
+ [0.21943536]
+ [0.79911443]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[[-19.32828538]
- [ 35.09809192]
- [  6.37969794]
- [  0.43579806]]</t>
+          <t>[[0.18026837]
+ [0.12314601]
+ [0.14180949]]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.147708735460457e-05</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[[0.23789413]
- [0.07852278]
- [0.17528606]]</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>2.557200097402561e-05</v>
+        <v>1.770550668389854</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0003084677619923459</v>
       </c>
     </row>
     <row r="4">
@@ -585,50 +564,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.50215904]
- [0.36845297]
- [0.4996523 ]]</t>
+          <t>[[  2.4534948    1.17384857  -3.22922337  -2.82240109]
+ [  1.17384857  12.80834249 -14.48220959  -1.23251664]
+ [ -3.22922337 -14.48220959  20.50788774   1.3917386 ]
+ [ -2.82240109  -1.23251664   1.3917386    5.65783231]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[ 0.04484662  0.0187753  -0.05834949 -0.05482344]
- [ 0.0187753   0.19153199 -0.21246582 -0.03273793]
- [-0.05834949 -0.21246582  0.33225869  0.02954066]
- [-0.05482344 -0.03273793  0.02954066  0.1187446 ]]</t>
+          <t>[[-1.90152589e+01]
+ [ 3.54398081e+01]
+ [ 5.63187525e+00]
+ [-1.31363152e-02]]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.71864014]
+ [0.31170116]
+ [0.80429457]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[[-19.06677994]
- [ 34.49797157]
- [  6.6668015 ]
- [  0.20504719]]</t>
+          <t>[[0.12716608]
+ [0.09139085]
+ [0.09638604]]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04487685796465532</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[[0.2080985 ]
- [0.15669179]
- [0.1657192 ]]</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0.05343327224198012</v>
+        <v>7.459007217468665</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001299518451595474</v>
       </c>
     </row>
     <row r="5">
@@ -637,50 +608,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[0.49156042]
- [0.39805966]
- [0.47274175]]</t>
+          <t>[[ 1.78458071  0.79824198 -2.38570523 -1.98846482]
+ [ 0.79824198  8.72379174 -9.9331892  -0.73385961]
+ [-2.38570523 -9.9331892  14.31997888  1.02104444]
+ [-1.98846482 -0.73385961  1.02104444  3.84327187]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[ 0.05291912  0.01855504 -0.06510031 -0.06616941]
- [ 0.01855504  0.26360938 -0.28327326 -0.03549105]
- [-0.06510031 -0.28327326  0.41157735  0.03364745]
- [-0.06616941 -0.03549105  0.03364745  0.14764542]]</t>
+          <t>[[-1.90188711e+01]
+ [ 3.55551528e+01]
+ [ 5.51666805e+00]
+ [-1.29669721e-02]]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.68613718]
+ [0.32197889]
+ [0.75968523]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[[-19.06691405]
- [ 34.18503501]
- [  6.99668021]
- [  0.19996851]]</t>
+          <t>[[0.11234438]
+ [0.08292011]
+ [0.07222393]]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05866606074643981</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[[0.20012751]
- [0.15355792]
- [0.1481761 ]]</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.06985158358675519</v>
+        <v>11.51086182223951</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.002005438109341658</v>
       </c>
     </row>
     <row r="6">
@@ -689,50 +652,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[0.47028028]
- [0.39826984]
- [0.47920394]]</t>
+          <t>[[ 1.16495985  0.51233766 -1.57111608 -1.26468592]
+ [ 0.51233766  5.79285122 -6.56359567 -0.45918884]
+ [-1.57111608 -6.56359567  9.45088038  0.62215401]
+ [-1.26468592 -0.45918884  0.62215401  2.46984613]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[ 0.04300461  0.01316917 -0.04932578 -0.05455276]
- [ 0.01316917  0.21030373 -0.22951028 -0.01933163]
- [-0.04932578 -0.22951028  0.33493526  0.01783634]
- [-0.05455276 -0.01933163  0.01783634  0.1188464 ]]</t>
+          <t>[[-1.90263522e+01]
+ [ 3.56372782e+01]
+ [ 5.43839276e+00]
+ [-5.46365745e-03]]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.69066054]
+ [0.35849027]
+ [0.75548607]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[[-19.0187823 ]
- [ 34.26610127]
- [  6.88296125]
- [  0.12636976]]</t>
+          <t>[[0.15032096]
+ [0.11089716]
+ [0.10753598]]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>487</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06481723127253539</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[[0.21291413]
- [0.16001981]
- [0.15416885]]</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07717556267607943</v>
+        <v>15.89723628999667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.002769638275700011</v>
       </c>
     </row>
     <row r="7">
@@ -741,50 +696,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[0.45526869]
- [0.40741079]
- [0.46161724]]</t>
+          <t>[[ 0.5581777   0.23703773 -0.76929273 -0.57183632]
+ [ 0.23703773  2.3406649  -2.67916002 -0.21305831]
+ [-0.76929273 -2.67916002  3.99262483  0.35044901]
+ [-0.57183632 -0.21305831  0.35044901  1.04821229]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[ 0.04662684  0.00819141 -0.04329969 -0.06461956]
- [ 0.00819141  0.27079611 -0.28648667 -0.01171534]
- [-0.04329969 -0.28648667  0.38353766  0.01174926]
- [-0.06461956 -0.01171534  0.01174926  0.1427262 ]]</t>
+          <t>[[-1.90329866e+01]
+ [ 3.57336903e+01]
+ [ 5.34589534e+00]
+ [ 9.87650068e-05]]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.6801494 ]
+ [0.39519382]
+ [0.71205914]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[[-18.98540318]
- [ 33.89935701]
- [  7.23814985]
- [  0.07290309]]</t>
+          <t>[[0.11771804]
+ [0.08946867]
+ [0.07543502]]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>872</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07919635408988408</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[[0.20941999]
- [0.16927017]
- [0.13880103]]</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.09429627074136748</v>
+        <v>36.9449122924492</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.006436593210980609</v>
       </c>
     </row>
     <row r="8">
@@ -793,50 +740,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[0.44821267]
- [0.42634713]
- [0.4597763 ]]</t>
+          <t>[[ 0.22185573  0.08625238 -0.29068145 -0.24143698]
+ [ 0.08625238  1.07455542 -1.20237967 -0.07517636]
+ [-0.29068145 -1.20237967  1.7166747   0.12646848]
+ [-0.24143698 -0.07517636  0.12646848  0.45656025]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[ 0.04326087  0.00891693 -0.04345153 -0.05718207]
- [ 0.00891693  0.25169743 -0.26636123 -0.01323606]
- [-0.04345153 -0.26636123  0.3587955   0.01308872]
- [-0.05718207 -0.01323606  0.01308872  0.12706899]]</t>
+          <t>[[-1.90366011e+01]
+ [ 3.57691595e+01]
+ [ 5.31223565e+00]
+ [ 3.80708570e-03]]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.63462492]
+ [0.40204581]
+ [0.65823901]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[[-18.9899162 ]
- [ 33.95739035]
- [  7.17866176]
- [  0.08433692]]</t>
+          <t>[[0.17159566]
+ [0.12749581]
+ [0.10506852]]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1346</v>
+        <v>86</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09167323566995898</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[[0.20931279]
- [0.1681083 ]
- [0.14517335]]</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1091520480937873</v>
+        <v>78.05290344694239</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0135984837221171</v>
       </c>
     </row>
     <row r="9">
@@ -845,50 +784,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[0.45051955]
- [0.44845263]
- [0.4500536 ]]</t>
+          <t>[[ 0.07520263  0.01493093 -0.07954985 -0.09083949]
+ [ 0.01493093  0.45693716 -0.49337587 -0.00330745]
+ [-0.07954985 -0.49337587  0.66667463  0.01317236]
+ [-0.09083949 -0.00330745  0.01317236  0.18498702]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[ 0.04479744  0.01023949 -0.04646125 -0.05834708]
- [ 0.01023949  0.28208399 -0.29339211 -0.02063777]
- [-0.04646125 -0.29339211  0.3826552   0.02020829]
- [-0.05834708 -0.02063777  0.02020829  0.13284142]]</t>
+          <t>[[-1.90369923e+01]
+ [ 3.57877868e+01]
+ [ 5.29287633e+00]
+ [ 4.71652384e-03]]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.48370961]
+ [0.32669691]
+ [0.54366648]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[[-19.0077439 ]
- [ 33.78979504]
- [  7.34458157]
- [  0.1304438 ]]</t>
+          <t>[[0.25547789]
+ [0.18764961]
+ [0.15854871]]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1371</v>
+        <v>205</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1144062408388718</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[[0.20386746]
- [0.16959667]
- [0.14242521]]</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1362194255609341</v>
+        <v>203.9292512448205</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0355288334072197</v>
       </c>
     </row>
     <row r="10">
@@ -897,50 +828,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[0.42503661]
- [0.45426813]
- [0.4633608 ]]</t>
+          <t>[[ 0.03797885  0.00134999 -0.03385365 -0.04707401]
+ [ 0.00134999  0.22841784 -0.24114074  0.00759156]
+ [-0.03385365 -0.24114074  0.32251112 -0.00143227]
+ [-0.04707401  0.00759156 -0.00143227  0.09592471]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[ 0.04662813  0.0073495  -0.04286063 -0.06220717]
- [ 0.0073495   0.26186538 -0.27694006 -0.00695428]
- [-0.04286063 -0.27694006  0.36937744  0.00732489]
- [-0.06220717 -0.00695428  0.00732489  0.13663276]]</t>
+          <t>[[-1.90366865e+01]
+ [ 3.57942532e+01]
+ [ 5.28545260e+00]
+ [ 4.67360571e-03]]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.43207668]
+ [0.32618428]
+ [0.48006809]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[[-18.97054965]
- [ 33.9386342 ]
- [  7.20099728]
- [  0.03726676]]</t>
+          <t>[[0.23343408]
+ [0.17586494]
+ [0.15384067]]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>962</v>
+        <v>437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1008044283606051</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[[0.20824848]
- [0.17045242]
- [0.14015741]]</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1200242331589171</v>
+        <v>434.2621718965974</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.075657750255009</v>
       </c>
     </row>
     <row r="11">
@@ -949,50 +872,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[0.43160722]
- [0.48009241]
- [0.46252893]]</t>
+          <t>[[ 0.02604239 -0.0036725  -0.01885118 -0.03290629]
+ [-0.0036725   0.15214426 -0.15556665  0.01128025]
+ [-0.01885118 -0.15556665  0.20592744 -0.00589345]
+ [-0.03290629  0.01128025 -0.00589345  0.06707339]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[ 0.04144262  0.01214651 -0.04487546 -0.05181318]
- [ 0.01214651  0.23470213 -0.24743979 -0.02025028]
- [-0.04487546 -0.24743979  0.32840871  0.01900352]
- [-0.05181318 -0.02025028  0.01900352  0.11573932]]</t>
+          <t>[[-1.90359560e+01]
+ [ 3.57958683e+01]
+ [ 5.28256702e+00]
+ [ 4.23548055e-03]]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.39795316]
+ [0.34100682]
+ [0.4330155 ]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[[-19.00758155]
- [ 33.98018359]
- [  7.14398437]
- [  0.13531976]]</t>
+          <t>[[0.19504068]
+ [0.14681342]
+ [0.13976472]]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>498</v>
+        <v>714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1383084579522742</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[[0.21174987]
- [0.17288396]
- [0.14712711]]</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1646789419382447</v>
+        <v>713.6033497716169</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1243249527868486</v>
       </c>
     </row>
     <row r="12">
@@ -1001,50 +916,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[0.41843174]
- [0.4838356 ]
- [0.47705084]]</t>
+          <t>[[ 0.01569077 -0.00233243 -0.01180427 -0.01944723]
+ [-0.00233243  0.08683637 -0.08737861  0.00530998]
+ [-0.01180427 -0.08737861  0.11794846 -0.00252285]
+ [-0.01944723  0.00530998 -0.00252285  0.04037398]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[ 0.05135699  0.01180034 -0.0491368  -0.06706472]
- [ 0.01180034  0.25209977 -0.26959007 -0.01312032]
- [-0.0491368  -0.26959007  0.36537568  0.01250984]
- [-0.06706472 -0.01312032  0.01250984  0.14485641]]</t>
+          <t>[[-1.90357141e+01]
+ [ 3.57971772e+01]
+ [ 5.27986789e+00]
+ [ 5.05864680e-03]]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.40335625]
+ [0.38354019]
+ [0.426072  ]]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[[-18.99387031]
- [ 34.06974273]
- [  7.08252786]
- [  0.07138931]]</t>
+          <t>[[0.17332293]
+ [0.13044803]
+ [0.11453944]]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>176</v>
+        <v>1275</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1125154820750274</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[[0.2085079 ]
- [0.17073349]
- [0.13657424]]</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1339681666191433</v>
+        <v>1252.889577937102</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2182801379422006</v>
       </c>
     </row>
     <row r="13">
@@ -1053,50 +960,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[0.41292913]
- [0.51300495]
- [0.49372262]]</t>
+          <t>[[ 0.01385244  0.00078703 -0.01312202 -0.01684142]
+ [ 0.00078703  0.07795258 -0.08018738 -0.00087031]
+ [-0.01312202 -0.08018738  0.10950057  0.00192766]
+ [-0.01684142 -0.00087031  0.00192766  0.0359829 ]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[ 0.03443788  0.01573609 -0.04858428 -0.03290736]
- [ 0.01573609  0.14071578 -0.15632645 -0.02203657]
- [-0.04858428 -0.15632645  0.23724933  0.02009769]
- [-0.03290736 -0.02203657  0.02009769  0.07112965]]</t>
+          <t>[[-1.90365525e+01]
+ [ 3.57971464e+01]
+ [ 5.28074525e+00]
+ [ 6.12009256e-03]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.42583563]
+ [0.43750842]
+ [0.43767852]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[-19.02361664]
- [ 34.47949425]
- [  6.64006921]
- [  0.16412604]]</t>
+          <t>[[0.18814792]
+ [0.1436415 ]
+ [0.12864595]]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>53</v>
+        <v>1299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1537136077388525</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>[[0.22675304]
- [0.1602733 ]
- [0.18546634]]</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1830213036767386</v>
+        <v>1244.862079812268</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2168815762262474</v>
       </c>
     </row>
     <row r="14">
@@ -1105,50 +1004,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[0.21208983]
- [0.40347603]
- [0.59835136]]</t>
+          <t>[[ 0.01821555  0.00667037 -0.02251869 -0.02207117]
+ [ 0.00667037  0.11216485 -0.11567151 -0.01514667]
+ [-0.02251869 -0.11567151  0.15382987  0.01521751]
+ [-0.02207117 -0.01514667  0.01521751  0.04908041]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[ 0.32577306 -0.74775315  0.37366988 -0.4906144 ]
- [-0.74775315  2.16777398 -1.26243143  1.18815852]
- [ 0.37366988 -1.26243143  1.02534628 -0.73709006]
- [-0.4906144   1.18815852 -0.73709006  0.81615414]]</t>
+          <t>[[-1.90375336e+01]
+ [ 3.57948351e+01]
+ [ 5.28356251e+00]
+ [ 7.81308855e-03]]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.52017475]
+ [0.54713498]
+ [0.42472276]]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[[-15.16418906]
- [ 25.31533894]
- [ 11.63316423]
- [ -6.01035776]]</t>
+          <t>[[0.18282532]
+ [0.13793568]
+ [0.13396227]]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>974</v>
       </c>
       <c r="G14" t="n">
-        <v>1.535330788231393e-05</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[[0.1226423 ]
- [0.14525665]
- [0.19726952]]</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1.828063543434219e-05</v>
+        <v>900.8564590945393</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1569484459125656</v>
       </c>
     </row>
     <row r="15">
@@ -1157,50 +1048,262 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[0.40399596]
- [0.4769349 ]
- [0.21571257]]</t>
+          <t>[[ 0.03392815  0.0171558  -0.04539909 -0.0416787 ]
+ [ 0.0171558   0.22179878 -0.23419125 -0.03297729]
+ [-0.04539909 -0.23419125  0.30815343  0.0331661 ]
+ [-0.0416787  -0.03297729  0.0331661   0.09133782]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[ 0.09242949 -0.32910772  0.19722855 -0.09855821]
- [-0.32910772  3.45755775 -2.78369664 -0.05333444]
- [ 0.19722855 -2.78369664  2.37139925  0.07161769]
- [-0.09855821 -0.05333444  0.07161769  0.35585734]]</t>
+          <t>[[-1.90384853e+01]
+ [ 3.57921264e+01]
+ [ 5.28773258e+00]
+ [ 8.78038072e-03]]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[[0.]
- [0.]
- [0.]
- [0.]]</t>
+          <t>[[0.53797539]
+ [0.60101784]
+ [0.45048572]]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[[-17.51271497]
- [ 20.63929526]
- [ 17.5798724 ]
- [  0.17856637]]</t>
+          <t>[[0.21710504]
+ [0.16281414]
+ [0.15147825]]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03829049586090424</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[[0.17373175]
- [0.23012773]
- [0.10933648]]</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0.04559112608167695</v>
+        <v>422.0256689897328</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07352588996223017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[[ 0.06993042  0.02865561 -0.08760484 -0.08430625]
+ [ 0.02865561  0.44840196 -0.48592655 -0.03690803]
+ [-0.08760484 -0.48592655  0.65362138  0.0384345 ]
+ [-0.08430625 -0.03690803  0.0384345   0.17948342]]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[[-1.90381798e+01]
+ [ 3.57876028e+01]
+ [ 5.29315466e+00]
+ [ 7.45883832e-03]]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[[0.45594725]
+ [0.5775953 ]
+ [0.51783413]]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[[0.24907623]
+ [0.18562855]
+ [0.1765685 ]]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>212</v>
+      </c>
+      <c r="G16" t="n">
+        <v>200.0049020313285</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03484512791334464</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[[ 0.10682456  0.03903251 -0.13012592 -0.1267116 ]
+ [ 0.03903251  0.68126411 -0.74941343 -0.03503922]
+ [-0.13012592 -0.74941343  1.0258711   0.03313241]
+ [-0.1267116  -0.03503922  0.03313241  0.27022709]]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[[-1.90376817e+01]
+ [ 3.57818152e+01]
+ [ 5.29935476e+00]
+ [ 6.14276017e-03]]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[[0.3772299 ]
+ [0.56108737]
+ [0.59891777]]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[[0.24762112]
+ [0.18376637]
+ [0.16694862]]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>132</v>
+      </c>
+      <c r="G17" t="n">
+        <v>131.9573732503438</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.02298979426662731</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[[ 0.1976056   0.06759407 -0.23789394 -0.23292945]
+ [ 0.06759407  1.23205955 -1.38806408 -0.02701829]
+ [-0.23789394 -1.38806408  1.96877078  0.00375429]
+ [-0.23292945 -0.02701829  0.00375429  0.5056405 ]]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[[-1.90365058e+01]
+ [ 3.57668869e+01]
+ [ 5.31371723e+00]
+ [ 4.57327289e-03]]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[[0.28487771]
+ [0.53131261]
+ [0.67359547]]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[[0.17839487]
+ [0.13518062]
+ [0.13128813]]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>73</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64.98144904776862</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01132115703698757</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[[ 8.74953610e-01  2.97863653e-01 -1.06756158e+00 -1.01730281e+00]
+ [ 2.97863653e-01  5.32203947e+00 -6.01854509e+00 -8.73589435e-02]
+ [-1.06756158e+00 -6.01854509e+00  8.61794020e+00  1.00664091e-03]
+ [-1.01730281e+00 -8.73589435e-02  1.00664091e-03  2.19081297e+00]]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[-1.90273257e+01]
+ [ 3.56499311e+01]
+ [ 5.42726688e+00]
+ [-7.94095298e-03]]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[[0.2646301 ]
+ [0.55456959]
+ [0.71532949]]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[[0.16860283]
+ [0.12193007]
+ [0.10994637]]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.93550530264658</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002427862816741119</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[[  3.93216007   1.05063406  -4.378763    -4.59378391]
+ [  1.05063406  19.94385956 -23.05278206   0.61120918]
+ [ -4.378763   -23.05278206  34.9180415   -1.21047997]
+ [ -4.59378391   0.61120918  -1.21047997   9.67099666]]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[-18.9791654 ]
+ [ 35.23130506]
+ [  5.83258234]
+ [ -0.09225886]]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[[0.21718454]
+ [0.56703988]
+ [0.77147454]]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[[0.0761397 ]
+ [0.05533239]
+ [0.05935588]]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7810583765791521</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.000136077059928395</v>
       </c>
     </row>
   </sheetData>
